--- a/Doc/Vcut.xlsx
+++ b/Doc/Vcut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Gert.lauritsen\Arbejdsfiler\Askob\FritidsProjekter\BOAT\LowBatAlarm\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8F3A76-AB1C-4601-8241-DB77773B962A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25717458-3795-4471-8E25-322D704CFA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="4050" windowWidth="24570" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="23520" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -313,97 +313,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>21.621621621621621</c:v>
+                  <c:v>7.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.253164556962023</c:v>
+                  <c:v>6.7415730337078648</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.047619047619047</c:v>
+                  <c:v>6.3829787234042552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.977528089887638</c:v>
+                  <c:v>6.0606060606060606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.021276595744681</c:v>
+                  <c:v>5.7692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.161616161616163</c:v>
+                  <c:v>5.5045871559633026</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.384615384615383</c:v>
+                  <c:v>5.2631578947368416</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.678899082568806</c:v>
+                  <c:v>5.0420168067226889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.035087719298245</c:v>
+                  <c:v>4.838709677419355</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.445378151260504</c:v>
+                  <c:v>4.6511627906976747</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.903225806451612</c:v>
+                  <c:v>4.4776119402985071</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.403100775193797</c:v>
+                  <c:v>4.3165467625899279</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.940298507462686</c:v>
+                  <c:v>4.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.510791366906474</c:v>
+                  <c:v>4.0268456375838921</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.111111111111111</c:v>
+                  <c:v>3.8961038961038961</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.738255033557047</c:v>
+                  <c:v>3.7735849056603774</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.38961038961039</c:v>
+                  <c:v>3.6585365853658538</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.062893081761006</c:v>
+                  <c:v>3.550295857988166</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7560975609756113</c:v>
+                  <c:v>3.4482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.4674556213017755</c:v>
+                  <c:v>3.3519553072625703</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.1954022988505759</c:v>
+                  <c:v>3.2608695652173916</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.9385474860335208</c:v>
+                  <c:v>3.1746031746031749</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6956521739130448</c:v>
+                  <c:v>3.0927835051546393</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.4656084656084669</c:v>
+                  <c:v>3.0150753768844223</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.247422680412372</c:v>
+                  <c:v>2.9411764705882355</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0402010050251267</c:v>
+                  <c:v>2.8708133971291869</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.8431372549019613</c:v>
+                  <c:v>2.8037383177570097</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6555023923444985</c:v>
+                  <c:v>2.7397260273972606</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.4766355140186924</c:v>
+                  <c:v>2.6785714285714288</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.3059360730593612</c:v>
+                  <c:v>2.6200873362445418</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.1428571428571432</c:v>
+                  <c:v>2.5641025641025643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -481,7 +481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1033598191"/>
@@ -543,7 +543,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1325161263"/>
@@ -591,7 +591,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1509,7 +1509,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,8 +1528,8 @@
         <v>100</v>
       </c>
       <c r="H1">
-        <f>(Vref*G1)/(F1-Vref)</f>
-        <v>21.621621621621621</v>
+        <f t="shared" ref="H1:H31" si="0">(Vref*G1)/(F1-Vref)</f>
+        <v>7.1428571428571423</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1540,8 +1540,8 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <f>(Vref*G2)/(F2-Vref)</f>
-        <v>20.253164556962023</v>
+        <f t="shared" si="0"/>
+        <v>6.7415730337078648</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1558,8 +1558,8 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <f>(Vref*G3)/(F3-Vref)</f>
-        <v>19.047619047619047</v>
+        <f t="shared" si="0"/>
+        <v>6.3829787234042552</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1570,8 +1570,8 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <f>(Vref*G4)/(F4-Vref)</f>
-        <v>17.977528089887638</v>
+        <f t="shared" si="0"/>
+        <v>6.0606060606060606</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1591,14 +1591,14 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <f>(Vref*G5)/(F5-Vref)</f>
-        <v>17.021276595744681</v>
+        <f t="shared" si="0"/>
+        <v>5.7692307692307692</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>(Vref/D6)*(D6+C6)</f>
-        <v>10.488888888888889</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -1613,8 +1613,8 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <f>(Vref*G6)/(F6-Vref)</f>
-        <v>16.161616161616163</v>
+        <f t="shared" si="0"/>
+        <v>5.5045871559633026</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1625,8 +1625,8 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <f>(Vref*G7)/(F7-Vref)</f>
-        <v>15.384615384615383</v>
+        <f t="shared" si="0"/>
+        <v>5.2631578947368416</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1637,8 +1637,8 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <f>(Vref*G8)/(F8-Vref)</f>
-        <v>14.678899082568806</v>
+        <f t="shared" si="0"/>
+        <v>5.0420168067226889</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1649,8 +1649,8 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <f>(Vref*G9)/(F9-Vref)</f>
-        <v>14.035087719298245</v>
+        <f t="shared" si="0"/>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1661,8 +1661,8 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <f>(Vref*G10)/(F10-Vref)</f>
-        <v>13.445378151260504</v>
+        <f t="shared" si="0"/>
+        <v>4.6511627906976747</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1673,8 +1673,8 @@
         <v>100</v>
       </c>
       <c r="H11">
-        <f>(Vref*G11)/(F11-Vref)</f>
-        <v>12.903225806451612</v>
+        <f t="shared" si="0"/>
+        <v>4.4776119402985071</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1685,8 +1685,8 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <f>(Vref*G12)/(F12-Vref)</f>
-        <v>12.403100775193797</v>
+        <f t="shared" si="0"/>
+        <v>4.3165467625899279</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1697,8 +1697,8 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <f>(Vref*G13)/(F13-Vref)</f>
-        <v>11.940298507462686</v>
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1709,8 +1709,8 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <f>(Vref*G14)/(F14-Vref)</f>
-        <v>11.510791366906474</v>
+        <f t="shared" si="0"/>
+        <v>4.0268456375838921</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1721,8 +1721,8 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <f>(Vref*G15)/(F15-Vref)</f>
-        <v>11.111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>3.8961038961038961</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1733,8 +1733,8 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <f>(Vref*G16)/(F16-Vref)</f>
-        <v>10.738255033557047</v>
+        <f t="shared" si="0"/>
+        <v>3.7735849056603774</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
@@ -1745,8 +1745,8 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <f>(Vref*G17)/(F17-Vref)</f>
-        <v>10.38961038961039</v>
+        <f t="shared" si="0"/>
+        <v>3.6585365853658538</v>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.25">
@@ -1757,8 +1757,8 @@
         <v>100</v>
       </c>
       <c r="H18">
-        <f>(Vref*G18)/(F18-Vref)</f>
-        <v>10.062893081761006</v>
+        <f t="shared" si="0"/>
+        <v>3.550295857988166</v>
       </c>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.25">
@@ -1769,8 +1769,8 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <f>(Vref*G19)/(F19-Vref)</f>
-        <v>9.7560975609756113</v>
+        <f t="shared" si="0"/>
+        <v>3.4482758620689657</v>
       </c>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.25">
@@ -1781,8 +1781,8 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <f>(Vref*G20)/(F20-Vref)</f>
-        <v>9.4674556213017755</v>
+        <f t="shared" si="0"/>
+        <v>3.3519553072625703</v>
       </c>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.25">
@@ -1793,8 +1793,8 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <f>(Vref*G21)/(F21-Vref)</f>
-        <v>9.1954022988505759</v>
+        <f t="shared" si="0"/>
+        <v>3.2608695652173916</v>
       </c>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.25">
@@ -1805,8 +1805,8 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <f>(Vref*G22)/(F22-Vref)</f>
-        <v>8.9385474860335208</v>
+        <f t="shared" si="0"/>
+        <v>3.1746031746031749</v>
       </c>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.25">
@@ -1817,8 +1817,8 @@
         <v>100</v>
       </c>
       <c r="H23">
-        <f>(Vref*G23)/(F23-Vref)</f>
-        <v>8.6956521739130448</v>
+        <f t="shared" si="0"/>
+        <v>3.0927835051546393</v>
       </c>
     </row>
     <row r="24" spans="6:8" x14ac:dyDescent="0.25">
@@ -1829,8 +1829,8 @@
         <v>100</v>
       </c>
       <c r="H24">
-        <f>(Vref*G24)/(F24-Vref)</f>
-        <v>8.4656084656084669</v>
+        <f t="shared" si="0"/>
+        <v>3.0150753768844223</v>
       </c>
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.25">
@@ -1841,8 +1841,8 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <f>(Vref*G25)/(F25-Vref)</f>
-        <v>8.247422680412372</v>
+        <f t="shared" si="0"/>
+        <v>2.9411764705882355</v>
       </c>
     </row>
     <row r="26" spans="6:8" x14ac:dyDescent="0.25">
@@ -1853,8 +1853,8 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <f>(Vref*G26)/(F26-Vref)</f>
-        <v>8.0402010050251267</v>
+        <f t="shared" si="0"/>
+        <v>2.8708133971291869</v>
       </c>
     </row>
     <row r="27" spans="6:8" x14ac:dyDescent="0.25">
@@ -1865,8 +1865,8 @@
         <v>100</v>
       </c>
       <c r="H27">
-        <f>(Vref*G27)/(F27-Vref)</f>
-        <v>7.8431372549019613</v>
+        <f t="shared" si="0"/>
+        <v>2.8037383177570097</v>
       </c>
     </row>
     <row r="28" spans="6:8" x14ac:dyDescent="0.25">
@@ -1877,8 +1877,8 @@
         <v>100</v>
       </c>
       <c r="H28">
-        <f>(Vref*G28)/(F28-Vref)</f>
-        <v>7.6555023923444985</v>
+        <f t="shared" si="0"/>
+        <v>2.7397260273972606</v>
       </c>
     </row>
     <row r="29" spans="6:8" x14ac:dyDescent="0.25">
@@ -1889,8 +1889,8 @@
         <v>100</v>
       </c>
       <c r="H29">
-        <f>(Vref*G29)/(F29-Vref)</f>
-        <v>7.4766355140186924</v>
+        <f t="shared" si="0"/>
+        <v>2.6785714285714288</v>
       </c>
     </row>
     <row r="30" spans="6:8" x14ac:dyDescent="0.25">
@@ -1901,8 +1901,8 @@
         <v>100</v>
       </c>
       <c r="H30">
-        <f>(Vref*G30)/(F30-Vref)</f>
-        <v>7.3059360730593612</v>
+        <f t="shared" si="0"/>
+        <v>2.6200873362445418</v>
       </c>
     </row>
     <row r="31" spans="6:8" x14ac:dyDescent="0.25">
@@ -1913,8 +1913,8 @@
         <v>100</v>
       </c>
       <c r="H31">
-        <f>(Vref*G31)/(F31-Vref)</f>
-        <v>7.1428571428571432</v>
+        <f t="shared" si="0"/>
+        <v>2.5641025641025643</v>
       </c>
     </row>
   </sheetData>
